--- a/public/upload/annuals/14.2013.xlsx
+++ b/public/upload/annuals/14.2013.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q E T I\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="450" windowWidth="14940" windowHeight="7215" tabRatio="954" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ფორმა N1" sheetId="15" r:id="rId1"/>
     <sheet name="ფორმა N2" sheetId="3" r:id="rId2"/>
     <sheet name="ფორმა N3" sheetId="7" r:id="rId3"/>
-    <sheet name="ფორმა N5" sheetId="8" r:id="rId4"/>
-    <sheet name="ფორმა N5.1" sheetId="27" r:id="rId5"/>
-    <sheet name="ფორმა 5.2" sheetId="29" r:id="rId6"/>
-    <sheet name="ფორმა N5.3" sheetId="30" r:id="rId7"/>
-    <sheet name="ფორმა 5.4" sheetId="34" r:id="rId8"/>
+    <sheet name="ფორმა N4" sheetId="8" r:id="rId4"/>
+    <sheet name="ფორმა N4.1" sheetId="27" r:id="rId5"/>
+    <sheet name="ფორმა 4.2" sheetId="29" r:id="rId6"/>
+    <sheet name="ფორმა N4.3" sheetId="30" r:id="rId7"/>
+    <sheet name="ფორმა 4.4" sheetId="34" r:id="rId8"/>
     <sheet name="ფორმა N7" sheetId="12" r:id="rId9"/>
     <sheet name="ფორმა N8" sheetId="9" r:id="rId10"/>
     <sheet name="ფორმა N 8.1" sheetId="18" r:id="rId11"/>
@@ -41,16 +36,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ფორმა N1'!$A$9:$M$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ფორმა N2'!$A$8:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ფორმა N3'!$A$8:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ფორმა N5'!$A$8:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ფორმა N5.1'!$B$9:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ფორმა N4'!$A$8:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ფორმა N4.1'!$B$9:$D$24</definedName>
     <definedName name="Date" localSheetId="7">#REF!</definedName>
     <definedName name="Date" localSheetId="14">#REF!</definedName>
     <definedName name="Date" localSheetId="17">#REF!</definedName>
     <definedName name="Date" localSheetId="18">#REF!</definedName>
     <definedName name="Date" localSheetId="4">#REF!</definedName>
     <definedName name="Date">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'ფორმა 5.2'!$A$1:$I$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'ფორმა 5.4'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'ფორმა 4.2'!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'ფორმა 4.4'!$A$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'ფორმა 9.5'!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'ფორმა 9.6'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ფორმა N 8.1'!$A$1:$H$51</definedName>
@@ -58,7 +53,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ფორმა N1'!$A$1:$M$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ფორმა N2'!$A$1:$E$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ფორმა N3'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N5'!$A$1:$D$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'ფორმა N4'!$A$1:$D$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ფორმა N7'!$A$1:$E$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'ფორმა N9'!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'ფორმა N9.1'!$A$1:$I$35</definedName>
@@ -3772,6 +3767,18 @@
     <xf numFmtId="4" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="12" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3802,18 +3809,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4632,7 +4627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4667,7 +4662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5014,11 +5009,11 @@
       <c r="G7" s="135"/>
       <c r="H7" s="135"/>
       <c r="I7" s="137"/>
-      <c r="J7" s="376" t="s">
+      <c r="J7" s="380" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="377"/>
-      <c r="L7" s="378"/>
+      <c r="K7" s="381"/>
+      <c r="L7" s="382"/>
       <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:14" s="69" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -5927,10 +5922,10 @@
       <c r="F1" s="108"/>
       <c r="G1" s="108"/>
       <c r="H1" s="108"/>
-      <c r="I1" s="381" t="s">
+      <c r="I1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="381"/>
+      <c r="J1" s="385"/>
       <c r="K1" s="152"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5944,10 +5939,10 @@
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
       <c r="H2" s="108"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
       <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6108,7 +6103,7 @@
         <v>180753.4</v>
       </c>
       <c r="H10" s="357">
-        <f>'ფორმა N5'!C9</f>
+        <f>'ფორმა N4'!C9</f>
         <v>65510.77</v>
       </c>
       <c r="I10" s="357">
@@ -6329,10 +6324,10 @@
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
       <c r="F2" s="108"/>
-      <c r="G2" s="379" t="s">
+      <c r="G2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="H2" s="380"/>
+      <c r="H2" s="384"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
@@ -6994,10 +6989,10 @@
       <c r="F1" s="110"/>
       <c r="G1" s="110"/>
       <c r="H1" s="110"/>
-      <c r="I1" s="384" t="s">
+      <c r="I1" s="388" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="384"/>
+      <c r="J1" s="388"/>
       <c r="K1" s="192"/>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -7011,10 +7006,10 @@
       <c r="F2" s="187"/>
       <c r="G2" s="188"/>
       <c r="H2" s="188"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
       <c r="K2" s="192"/>
     </row>
     <row r="3" spans="1:12" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7077,25 +7072,25 @@
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="181"/>
-      <c r="B7" s="383" t="s">
+      <c r="B7" s="387" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="383"/>
-      <c r="D7" s="383" t="s">
+      <c r="C7" s="387"/>
+      <c r="D7" s="387" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="383"/>
-      <c r="F7" s="383" t="s">
+      <c r="E7" s="387"/>
+      <c r="F7" s="387" t="s">
         <v>288</v>
       </c>
-      <c r="G7" s="383"/>
+      <c r="G7" s="387"/>
       <c r="H7" s="204" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="383" t="s">
+      <c r="I7" s="387" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="383"/>
+      <c r="J7" s="387"/>
       <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -8037,10 +8032,10 @@
       <c r="E2" s="186"/>
       <c r="F2" s="186"/>
       <c r="G2" s="194"/>
-      <c r="H2" s="379" t="s">
+      <c r="H2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="I2" s="380"/>
+      <c r="I2" s="384"/>
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
@@ -8567,10 +8562,10 @@
       <c r="F2" s="186"/>
       <c r="G2" s="186"/>
       <c r="H2" s="192"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
     </row>
     <row r="3" spans="1:12" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
@@ -9117,10 +9112,10 @@
       <c r="D2" s="258"/>
       <c r="E2" s="259"/>
       <c r="F2" s="259"/>
-      <c r="G2" s="379" t="s">
+      <c r="G2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="H2" s="380"/>
+      <c r="H2" s="384"/>
     </row>
     <row r="3" spans="1:8" s="260" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="261"/>
@@ -9456,10 +9451,10 @@
       <c r="H2" s="186"/>
       <c r="I2" s="186"/>
       <c r="J2" s="186"/>
-      <c r="K2" s="379" t="s">
+      <c r="K2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="L2" s="380"/>
+      <c r="L2" s="384"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
@@ -10186,8 +10181,8 @@
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="385"/>
-      <c r="D44" s="385"/>
+      <c r="C44" s="389"/>
+      <c r="D44" s="389"/>
       <c r="F44" s="99"/>
       <c r="G44" s="102"/>
     </row>
@@ -10285,10 +10280,10 @@
       <c r="I2" s="186"/>
       <c r="J2" s="186"/>
       <c r="K2" s="192"/>
-      <c r="L2" s="379" t="s">
+      <c r="L2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="M2" s="380"/>
+      <c r="M2" s="384"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
@@ -10913,10 +10908,10 @@
       <c r="F2" s="186"/>
       <c r="G2" s="186"/>
       <c r="H2" s="192"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="186"/>
@@ -10968,7 +10963,7 @@
       <c r="H6" s="186"/>
       <c r="I6" s="186"/>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="198" t="s">
         <v>62</v>
       </c>
@@ -11413,10 +11408,10 @@
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
       <c r="H2" s="108"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
@@ -12043,10 +12038,10 @@
         <v>296</v>
       </c>
       <c r="B1" s="108"/>
-      <c r="C1" s="381" t="s">
+      <c r="C1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="381"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12054,10 +12049,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="108"/>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="380"/>
+      <c r="D2" s="384"/>
       <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -16302,10 +16297,10 @@
         <v>264</v>
       </c>
       <c r="B1" s="305"/>
-      <c r="C1" s="381" t="s">
+      <c r="C1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="381"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -16313,10 +16308,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="305"/>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="380"/>
+      <c r="D2" s="384"/>
       <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -16742,7 +16737,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="74" zoomScaleNormal="100" zoomScaleSheetLayoutView="74" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScale="74" zoomScaleNormal="100" zoomScaleSheetLayoutView="74" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -16761,10 +16756,10 @@
         <v>297</v>
       </c>
       <c r="B1" s="163"/>
-      <c r="C1" s="381" t="s">
+      <c r="C1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="381"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="201"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -16772,10 +16767,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="163"/>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="380"/>
+      <c r="D2" s="384"/>
       <c r="E2" s="201"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16841,7 +16836,7 @@
       <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="388">
+      <c r="C9" s="378">
         <f>C10+C14+C17+C23+C30+C31+C32+C35+C36+C42+C43+C46+C60+C61</f>
         <v>65510.77</v>
       </c>
@@ -16855,7 +16850,7 @@
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="389">
+      <c r="C10" s="379">
         <f>C11</f>
         <v>19030.3</v>
       </c>
@@ -16904,7 +16899,7 @@
       <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="386">
+      <c r="C14" s="376">
         <v>565</v>
       </c>
       <c r="D14" s="115"/>
@@ -16941,7 +16936,7 @@
       <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="386">
+      <c r="C17" s="376">
         <f>C18+C21</f>
         <v>5269.4400000000005</v>
       </c>
@@ -17014,7 +17009,7 @@
       <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="386">
+      <c r="C23" s="376">
         <f>C24+C25+C26+C27</f>
         <v>2204.0299999999997</v>
       </c>
@@ -17793,10 +17788,10 @@
         <v>328</v>
       </c>
       <c r="B1" s="109"/>
-      <c r="C1" s="381" t="s">
+      <c r="C1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="381"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -17804,10 +17799,10 @@
         <v>322</v>
       </c>
       <c r="B2" s="109"/>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="380"/>
+      <c r="D2" s="384"/>
       <c r="E2" s="123"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -18155,10 +18150,10 @@
       <c r="F1" s="109"/>
       <c r="G1" s="291"/>
       <c r="H1" s="291"/>
-      <c r="I1" s="381" t="s">
+      <c r="I1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="381"/>
+      <c r="J1" s="385"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
@@ -18171,10 +18166,10 @@
       <c r="F2" s="109"/>
       <c r="G2" s="291"/>
       <c r="H2" s="291"/>
-      <c r="I2" s="379" t="s">
+      <c r="I2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="380"/>
+      <c r="J2" s="384"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
@@ -18928,7 +18923,7 @@
       <c r="D38" s="248"/>
       <c r="E38" s="248"/>
       <c r="F38" s="248"/>
-      <c r="G38" s="387">
+      <c r="G38" s="377">
         <f>G34+I34</f>
         <v>18905.5</v>
       </c>
@@ -19026,10 +19021,10 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="381" t="s">
+      <c r="G1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="381"/>
+      <c r="H1" s="385"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
@@ -19040,10 +19035,10 @@
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
-      <c r="G2" s="379" t="s">
+      <c r="G2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="H2" s="380"/>
+      <c r="H2" s="384"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
@@ -19555,8 +19550,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19583,10 +19578,10 @@
       <c r="D1" s="109"/>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
-      <c r="G1" s="381" t="s">
+      <c r="G1" s="385" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="381"/>
+      <c r="H1" s="385"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
@@ -19597,10 +19592,10 @@
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
       <c r="F2" s="109"/>
-      <c r="G2" s="379" t="s">
+      <c r="G2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="H2" s="380"/>
+      <c r="H2" s="384"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
@@ -20150,10 +20145,10 @@
         <v>214</v>
       </c>
       <c r="B1" s="169"/>
-      <c r="C1" s="382" t="s">
+      <c r="C1" s="386" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="382"/>
+      <c r="D1" s="386"/>
       <c r="E1" s="152"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -20162,10 +20157,10 @@
       </c>
       <c r="B2" s="169"/>
       <c r="C2" s="109"/>
-      <c r="D2" s="379" t="s">
+      <c r="D2" s="383" t="s">
         <v>524</v>
       </c>
-      <c r="E2" s="380"/>
+      <c r="E2" s="384"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="165"/>
